--- a/Defect_Report.xlsx
+++ b/Defect_Report.xlsx
@@ -3055,7 +3055,7 @@
     <row r="17">
       <c r="A17" t="inlineStr" s="1">
         <is>
-          <t>3641116</t>
+          <t>3641767</t>
         </is>
       </c>
       <c r="B17" t="inlineStr" s="1">
@@ -3070,12 +3070,12 @@
       </c>
       <c r="D17" t="inlineStr" s="1">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr" s="1">
         <is>
-          <t>ATM_1-2</t>
+          <t>ATM_1-9</t>
         </is>
       </c>
       <c r="F17" t="inlineStr" s="1">
@@ -3100,208 +3100,20 @@
       </c>
       <c r="J17" t="inlineStr" s="1">
         <is>
-          <t>63782,63751</t>
+          <t>63782</t>
         </is>
       </c>
       <c r="K17" t="inlineStr" s="1">
         <is>
-          <t>1.1,1.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="L17" t="inlineStr" s="1">
         <is>
-          <t>Test Case 40 - Invalid Pin Extension </t>
+          <t>Test Case 13 - Withdrawal</t>
         </is>
       </c>
       <c r="M17" t="inlineStr" s="1">
-        <is>
-          <t>MFT
-a. Function Being Tested: Correct Re-Entry of PIN on the third try is accepted
-b. Initial State of System: Request to Enter PIN is being displayed
-c. Steps to Reproduce Defect:
-1. Turn on the system
-2. Enter '5' for amount 
-3. Insert Card
-4. Enter '1' for card number 
-5. Enter '57' for incorrect card PIN to set the initial state of system to be Request to re-enter PIN is being displayed
-6. Enter '55' for incorrect card PIN
-7. Enter '62' for incorrect card PIN
-8. Enter '42' for correct card PIN. 
-d. Expected Outcome: Original transaction completes successfully, where you can choose a transaction type(withdrawal, deposit, transfer, inquiry)
-e. Actual Outcome: Request to enter PIN again
-@Emmanuel Omari-Osei 
-![image][TestCase40.PNG]</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr" s="1">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr" s="1">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr" s="1">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr" s="1">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr" s="1">
-        <is>
-          <t>319625</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr" s="1">
-        <is>
-          <t>Priyanka Gautam</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr" s="1">
-        <is>
-          <t>319625</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr" s="1">
-        <is>
-          <t>Priyanka Gautam</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr" s="1">
-        <is>
-          <t>Jan. 22, 2022 21:50</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr" s="1">
-        <is>
-          <t>319625</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr" s="1">
-        <is>
-          <t>Priyanka Gautam</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr" s="1">
-        <is>
-          <t>Jan. 23, 2022 22:14</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr" s="1">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr" s="1">
-        <is>
-          <t>Jan. 23, 2022 19:14 Gibran Akmal
-Defect still exists in version 1.1</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr" s="1">
-        <is>
-          <t>3641767</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr" s="1">
-        <is>
-          <t>68325</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr" s="1">
-        <is>
-          <t>ATM Project</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr" s="1">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr" s="1">
-        <is>
-          <t>ATM_1-9</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr" s="1">
-        <is>
-          <t>292612</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr" s="1">
-        <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr" s="1">
-        <is>
-          <t>63782</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr" s="1">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr" s="1">
-        <is>
-          <t>Test Case 13 - Withdrawal</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr" s="1">
         <is>
           <t>MFT
 a. Function Being Tested: System asks customer to choose a dollar amount to withdraw
@@ -3320,174 +3132,174 @@
 ![image][test13debug1.1.png]</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr" s="1">
+      <c r="N17" t="inlineStr" s="1">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr" s="1">
+      <c r="O17" t="inlineStr" s="1">
         <is>
           <t>Open</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr" s="1">
+      <c r="P17" t="inlineStr" s="1">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr" s="1">
+      <c r="Q17" t="inlineStr" s="1">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr" s="1">
+      <c r="R17" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr" s="1">
         <is>
           <t>319626</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr" s="1">
+      <c r="W17" t="inlineStr" s="1">
         <is>
           <t>Gibran Akmal</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr" s="1">
+      <c r="X17" t="inlineStr" s="1">
         <is>
           <t>319626</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr" s="1">
+      <c r="Y17" t="inlineStr" s="1">
         <is>
           <t>Gibran Akmal</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr" s="1">
+      <c r="Z17" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 19:26</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr" s="1">
+      <c r="AA17" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr" s="1">
         <is>
           <t>319626</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr" s="1">
+      <c r="AC17" t="inlineStr" s="1">
         <is>
           <t>Gibran Akmal</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr" s="1">
+      <c r="AD17" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 19:26</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr" s="1">
+      <c r="AE17" t="inlineStr" s="1">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr" s="1">
+      <c r="AF17" t="inlineStr" s="1">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr" s="1">
+      <c r="AG17" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr" s="1">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr" s="1">
+    <row r="18">
+      <c r="A18" t="inlineStr" s="1">
         <is>
           <t>3641535</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr" s="1">
+      <c r="B18" t="inlineStr" s="1">
         <is>
           <t>68325</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr" s="1">
+      <c r="C18" t="inlineStr" s="1">
         <is>
           <t>ATM Project</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr" s="1">
+      <c r="D18" t="inlineStr" s="1">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr" s="1">
+      <c r="E18" t="inlineStr" s="1">
         <is>
           <t>ATM_1-3</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr" s="1">
+      <c r="F18" t="inlineStr" s="1">
         <is>
           <t>292612</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr" s="1">
+      <c r="G18" t="inlineStr" s="1">
         <is>
           <t>Bug</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr" s="1">
+      <c r="H18" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr" s="1">
         <is>
           <t>63782,63751</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr" s="1">
+      <c r="K18" t="inlineStr" s="1">
         <is>
           <t>1.1,1.0</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr" s="1">
+      <c r="L18" t="inlineStr" s="1">
         <is>
           <t>Test Case 3 - System Startup</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr" s="1">
+      <c r="M18" t="inlineStr" s="1">
         <is>
           <t>
 MFT
@@ -3508,109 +3320,109 @@
 </t>
         </is>
       </c>
-      <c r="N19" t="inlineStr" s="1">
+      <c r="N18" t="inlineStr" s="1">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr" s="1">
+      <c r="O18" t="inlineStr" s="1">
         <is>
           <t>In Progress</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr" s="1">
+      <c r="P18" t="inlineStr" s="1">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr" s="1">
+      <c r="Q18" t="inlineStr" s="1">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr" s="1">
+      <c r="R18" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr" s="1">
         <is>
           <t>319626</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr" s="1">
+      <c r="W18" t="inlineStr" s="1">
         <is>
           <t>Gibran Akmal</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr" s="1">
+      <c r="X18" t="inlineStr" s="1">
         <is>
           <t>319626</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr" s="1">
+      <c r="Y18" t="inlineStr" s="1">
         <is>
           <t>Gibran Akmal</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr" s="1">
+      <c r="Z18" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 17:26</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr" s="1">
+      <c r="AA18" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr" s="1">
         <is>
           <t>319626</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr" s="1">
+      <c r="AC18" t="inlineStr" s="1">
         <is>
           <t>Gibran Akmal</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr" s="1">
+      <c r="AD18" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 18:39</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr" s="1">
+      <c r="AE18" t="inlineStr" s="1">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr" s="1">
+      <c r="AF18" t="inlineStr" s="1">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr" s="1">
+      <c r="AG18" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 18:39 Gibran Akmal
 Defect still exists in version 1.1:  it says "Would you like to do another transactio"
 </t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr" s="1">
+      <c r="AH18" t="inlineStr" s="1">
         <is>
           <t/>
         </is>
